--- a/DesignDocuments/机制、系统、数值/敌人行为列表.xlsx
+++ b/DesignDocuments/机制、系统、数值/敌人行为列表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1069458-54C5-4C96-99DA-542401787702}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,179 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+  <si>
+    <t>行为名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">移动至位置 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至任意位置，位置由其他条件判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向面朝方向释放一次普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅近战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞄准/转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变角色朝向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明见boss技能设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃（待定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色原地跳跃，或保持当前运动状态起跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依据预设攻击距离判定对象是否处在攻击范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveToPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeleeAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurnAndAim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossCombo_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossCombo_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossCombo_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InAttackRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入警戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定角色与敌人距离，进入警戒范围后，进入警戒状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,10 +203,71 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,11 +276,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +575,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DesignDocuments/机制、系统、数值/敌人行为列表.xlsx
+++ b/DesignDocuments/机制、系统、数值/敌人行为列表.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1069458-54C5-4C96-99DA-542401787702}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA33033-D87C-49D9-BC94-A5D5A9D41F11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,28 +21,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>行为名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行为模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">移动至位置 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动至任意位置，位置由其他条件判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普通攻击一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,54 +43,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瞄准/转向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改变角色朝向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss技能1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss技能3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明见boss技能设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跃（待定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色原地跳跃，或保持当前运动状态起跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击判定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,47 +59,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MoveToPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MeleeAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TurnAndAim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BossCombo_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BossCombo_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BossCombo_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InAttackRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入警戒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>判定角色与敌人距离，进入警戒范围后，进入警戒状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警戒状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlertAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveToEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至附近任意位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警戒判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向目标移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向目标当前位置移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入警戒状态，播放警戒动画，移动速度变快</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -296,6 +257,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -311,6 +275,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1599810</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F9CBBE-A5E0-4AEC-A6F0-81FF02D812FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2940930" y="2468880"/>
+          <a:ext cx="5898270" cy="3684063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,20 +595,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.21875" style="4" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.21875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
+    <col min="6" max="6" width="26.6640625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -597,147 +617,117 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>26</v>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFCC358-F516-4785-B866-14FDE07C30C3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignDocuments/机制、系统、数值/敌人行为列表.xlsx
+++ b/DesignDocuments/机制、系统、数值/敌人行为列表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA33033-D87C-49D9-BC94-A5D5A9D41F11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797FB9CD-93D4-46D0-8653-86D7794D185E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>行为名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移动至附近任意位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Patrol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +112,18 @@
   </si>
   <si>
     <t>进入警戒状态，播放警戒动画，移动速度变快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至附近任意位置，在出生点附近随机左右移动，每次向同一方向移动时间不超过3s，转向时停滞1s后继续移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后撤/闪躲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在目标进入威胁范围后，以进攻时1.5~2倍的速度向目标相反方向移动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,13 +291,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1599810</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>3603</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -595,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -617,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
@@ -631,84 +639,92 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocuments/机制、系统、数值/敌人行为列表.xlsx
+++ b/DesignDocuments/机制、系统、数值/敌人行为列表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797FB9CD-93D4-46D0-8653-86D7794D185E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEBB461-03F9-4589-BEF8-4CEBBB9C7DDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>行为名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,14 @@
   </si>
   <si>
     <t>在目标进入威胁范围后，以进攻时1.5~2倍的速度向目标相反方向移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此状态下角色移动速度慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度较快，近战用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,15 +298,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1599810</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>1782690</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>3603</xdr:rowOff>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>26463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -327,7 +335,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2940930" y="2468880"/>
+          <a:off x="3123810" y="2491740"/>
           <a:ext cx="5898270" cy="3684063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -605,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -647,7 +655,9 @@
       <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
@@ -661,6 +671,9 @@
       </c>
       <c r="C3" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>14</v>
@@ -739,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFCC358-F516-4785-B866-14FDE07C30C3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
